--- a/data/trans_dic/P30_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P30_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no consume fruta diariamente</t>
+          <t>Población que no consume fruta diariamente (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,21%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>35,04%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>40,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,12%</t>
+          <t>36,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>37,82%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26,32%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>30,85%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>38,8%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>26,76%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>34,72%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>28,4%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>39,48%</t>
+          <t>39,47%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>26,64%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>33,44%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>28,3%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>32,93%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>39,5%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>37,71%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,3; 30,37</t>
+          <t>16,39; 30,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,81; 38,15</t>
+          <t>20,73; 36,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,2; 39,49</t>
+          <t>22,01; 39,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,32; 50,59</t>
+          <t>25,77; 44,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,38; 37,99</t>
+          <t>30,93; 51,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,33; 46,99</t>
+          <t>26,36; 47,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,46; 35,52</t>
+          <t>23,6; 38,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,52; 47,95</t>
+          <t>30,35; 45,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,47; 32,12</t>
+          <t>19,62; 34,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,28; 40,25</t>
+          <t>23,7; 39,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>22,76; 34,63</t>
+          <t>29,52; 47,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,37; 46,99</t>
+          <t>31,7; 48,9</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>21,59; 32,0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>28,22; 38,93</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>22,52; 34,63</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>27,03; 39,68</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>32,22; 45,94</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>31,44; 45,52</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>24,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>41,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>25,58%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26,25%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>26,51%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>37,67%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>24,01%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>26,12%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>24,33%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>30,91%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>23,73%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>25,73%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>24,25%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>27,53%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>34,0%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>36,6%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,61; 32,68</t>
+          <t>17,54; 31,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,61; 33,58</t>
+          <t>19,7; 32,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,31; 30,18</t>
+          <t>16,39; 28,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,53; 41,23</t>
+          <t>19,05; 37,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,32; 29,93</t>
+          <t>21,83; 41,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,27; 31,65</t>
+          <t>31,83; 52,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,47; 32,13</t>
+          <t>17,37; 30,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,21; 46,03</t>
+          <t>20,26; 32,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,63; 28,64</t>
+          <t>20,33; 32,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,1; 30,83</t>
+          <t>20,49; 34,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,32; 28,88</t>
+          <t>29,87; 45,7</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,99; 40,1</t>
+          <t>24,43; 38,64</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>18,9; 28,23</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>21,42; 29,73</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>19,66; 28,39</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>22,33; 33,32</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>27,59; 40,44</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>30,58; 43,12</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29,45%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>26,64%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>29,38%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>19,18%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>22,54%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18,08%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>22,49%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>28,97%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>23,76%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>25,92%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>23,43%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>29,19%</t>
+          <t>28,54%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>22,68%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>25,97%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>23,37%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>24,5%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>29,18%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>33,54%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,79; 38,77</t>
+          <t>19,1; 33,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,54; 36,58</t>
+          <t>23,44; 35,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,4; 35,1</t>
+          <t>22,96; 36,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,56; 35,72</t>
+          <t>21,27; 35,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,76; 24,31</t>
+          <t>23,48; 35,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,57; 27,16</t>
+          <t>30,51; 45,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,75; 22,63</t>
+          <t>14,99; 24,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,91; 34,9</t>
+          <t>18,38; 27,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,44; 29,66</t>
+          <t>14,53; 22,12</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,45; 29,73</t>
+          <t>18,14; 27,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,89; 27,95</t>
+          <t>23,32; 35,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>25,49; 33,51</t>
+          <t>22,65; 34,73</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>19,23; 27,77</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>22,33; 30,03</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>20,01; 27,46</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>20,32; 29,21</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>24,83; 33,17</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>29,01; 38,61</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>21,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,22%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>22,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>28,63%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>22,42%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>14,68%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>29,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>17,89%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15,42%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19,6%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>26,58%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>17,68%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>19,44%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>19,06%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>28,05%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>17,91%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>19,45%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>18,79%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>24,11%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>24,4%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>28,68%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,6; 27,17</t>
+          <t>16,39; 28,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,75; 27,46</t>
+          <t>16,53; 27,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,79; 28,01</t>
+          <t>17,62; 27,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,61; 28,7</t>
+          <t>23,27; 36,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,93; 19,6</t>
+          <t>17,0; 28,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,98; 21,79</t>
+          <t>23,41; 35,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,21; 19,48</t>
+          <t>10,8; 18,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,55; 32,93</t>
+          <t>14,39; 22,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,54; 21,94</t>
+          <t>11,88; 19,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,53; 22,86</t>
+          <t>15,21; 24,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,11; 22,61</t>
+          <t>21,15; 32,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,51; 28,83</t>
+          <t>22,7; 33,98</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>14,35; 22,03</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>16,16; 22,6</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>16,03; 22,28</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>20,41; 28,59</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>20,42; 28,71</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>24,58; 33,29</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1505,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1231,47 +1520,77 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>23,31%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>13,89%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9,65%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13,61%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>19,73%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>13,99%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>14,15%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>11,62%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>18,84%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>13,41%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>14,2%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>11,58%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>16,59%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>19,73%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>21,04%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,36; 17,7</t>
+          <t>9,12; 18,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,65; 19,1</t>
+          <t>10,75; 18,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,13; 18,26</t>
+          <t>9,86; 18,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,98; 26,2</t>
+          <t>14,84; 25,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,25; 21,77</t>
+          <t>14,12; 26,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,81; 18,48</t>
+          <t>17,59; 29,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,34; 14,19</t>
+          <t>9,4; 18,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,35; 25,61</t>
+          <t>10,09; 18,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,96; 18,2</t>
+          <t>6,09; 13,78</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,33; 17,45</t>
+          <t>9,08; 20,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,06; 14,4</t>
+          <t>14,67; 25,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,75; 23,7</t>
+          <t>13,76; 24,82</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>10,13; 16,81</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>11,49; 17,88</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>9,07; 14,56</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>12,84; 20,58</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>15,93; 24,48</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>17,11; 25,3</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>13,47%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>15,73%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,24%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>5,46%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>8,31%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>10,33%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>10,29%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>8,89%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>8,45%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>10,0%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>11,93%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>8,16%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>10,65%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>11,71%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>12,59%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>16,11%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,03; 23,2</t>
+          <t>7,43; 21,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,14; 24,28</t>
+          <t>6,83; 21,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,36; 23,59</t>
+          <t>8,47; 22,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,67; 22,65</t>
+          <t>8,37; 20,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,22; 11,38</t>
+          <t>10,77; 22,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,96; 8,2</t>
+          <t>15,94; 28,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,06; 12,8</t>
+          <t>3,86; 13,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,66; 16,89</t>
+          <t>3,04; 8,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,09; 14,02</t>
+          <t>4,62; 15,88</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,78; 14,17</t>
+          <t>5,23; 21,08</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,08; 14,78</t>
+          <t>5,65; 17,33</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,73; 17,37</t>
+          <t>7,21; 18,28</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>6,45; 15,33</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>5,53; 12,39</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>7,28; 16,18</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>8,11; 18,75</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>8,88; 16,82</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>11,7; 20,49</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>25,3%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>26,17%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>17,19%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>32,1%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>19,8%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>16,86%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>19,91%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>25,7%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>19,02%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>21,33%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>19,47%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>25,25%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>18,86%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>21,07%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>19,49%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>22,55%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>25,93%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>28,67%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,33; 24,21</t>
+          <t>18,04; 23,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,36; 25,46</t>
+          <t>19,95; 25,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,63; 25,09</t>
+          <t>19,7; 25,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,22; 29,37</t>
+          <t>22,49; 28,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,11; 19,29</t>
+          <t>22,94; 29,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,85; 22,01</t>
+          <t>28,85; 35,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,92; 18,89</t>
+          <t>15,35; 19,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,07; 28,72</t>
+          <t>17,89; 21,76</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,51; 21,08</t>
+          <t>14,96; 19,37</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,78; 23,19</t>
+          <t>17,64; 22,61</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,97; 21,29</t>
+          <t>23,13; 28,64</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>23,99; 28,08</t>
+          <t>22,9; 28,25</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>17,22; 20,67</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>19,44; 22,67</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>18,07; 21,39</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>20,46; 24,49</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>23,96; 28,08</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>26,69; 31,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no consume fruta diariamente (tasa de respuesta: 99,88%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>113641</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>152770</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>153538</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>165090</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>16719</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15933</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>144986</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>194749</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>135284</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>147246</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>14376</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15217</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>258627</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>347519</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>288822</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>312336</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>31095</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>31150</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>82296; 152207</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>108667; 191808</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>111513; 200821</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>121419; 210662</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12891; 21277</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11614; 21034</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>110657; 181036</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>156268; 235677</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>100865; 176996</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>113084; 189886</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10939; 17774</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12220; 18851</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>209609; 310695</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>293265; 404482</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>229869; 353452</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>256376; 376339</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>25364; 36171</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>25978; 37604</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>139893</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>146248</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>133820</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>164719</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15088</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>20559</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>118634</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>129963</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>135790</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>132590</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17781</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14219</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>258527</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>276212</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>269610</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>297309</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>32869</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>34778</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>100532; 181507</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>111384; 183787</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>97423; 171431</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>110466; 215794</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10794; 20293</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>15596; 25795</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>89715; 154896</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>102908; 163914</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>105168; 166143</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>102495; 171141</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14101; 21571</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11237; 17778</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>205911; 307604</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>229986; 319112</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>218590; 315579</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>241192; 359915</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>26666; 39090</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>29054; 40972</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>178229</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>200821</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>196714</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>180145</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17558</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23106</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>138445</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>161547</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>129044</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>161343</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15618</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15554</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>316673</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>362368</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>325758</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>341488</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>33176</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>38660</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>130587; 226586</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>159041; 242733</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>156130; 247384</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>143856; 241333</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14029; 21461</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18539; 27725</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>106830; 175131</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>131717; 197217</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>103670; 157867</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>130179; 197541</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12576; 18869</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12345; 18930</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>268523; 387658</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>311561; 418948</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>278934; 382718</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>283259; 407054</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>28223; 37702</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>33437; 44504</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>137684</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>136183</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>141819</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>188409</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>12927</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16585</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>101004</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>120460</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>101750</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>129266</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>13876</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>15007</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>238688</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>256643</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>243569</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>317674</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>26802</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>31593</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>106062; 182471</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>106770; 174550</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>112208; 175889</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>153155; 239523</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9802; 16207</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>13267; 20161</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>74014; 127853</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>96876; 151044</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>78420; 125524</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>100323; 163057</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>11043; 16854</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>12147; 18184</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>191283; 293662</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>213247; 298143</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>207853; 288856</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>269001; 376699</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>22439; 31544</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>27076; 36673</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>64625</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>72822</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>66856</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>97535</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8778</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10398</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>69723</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>69641</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>49686</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>70339</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>9621</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8728</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>134348</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>142463</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>116542</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>167873</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>18399</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>19126</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>44934; 91768</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>53894; 94666</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>48410; 89223</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>73463; 127524</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6280; 11804</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7844; 13191</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>47863; 94667</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>50619; 93063</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>31377; 70976</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>46950; 104247</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7156; 12571</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6372; 11495</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>101501; 168388</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>115233; 179312</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>91306; 146472</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>129946; 208238</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>14853; 22828</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>15561; 23007</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>69763</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>61183</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>72864</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>76316</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>7324</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>10021</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>53660</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>37785</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>57554</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>74656</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>6556</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>7523</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>123424</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>98968</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>130418</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>150972</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>13880</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>17544</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>40534; 116716</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>35512; 109222</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>45098; 117588</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>47382; 117510</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5012; 10639</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>7308; 13226</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>27671; 99021</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>21067; 61589</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>32031; 109967</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>37812; 152332</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>3599; 11041</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>4548; 11527</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>81405; 193563</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>67122; 150317</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>89230; 198163</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>104553; 241684</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>9795; 18549</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>12746; 22317</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>451.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>612.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>551.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>511.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>529.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>564.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>703836</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>770028</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>765612</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>872213</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>78393</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>96601</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>626453</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>714145</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>609109</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>715439</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>77827</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>76249</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1330288</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1484173</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1374720</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1587652</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>156220</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>172850</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>621200; 808362</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>685283; 859419</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>678057; 864717</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>775279; 987861</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>68728; 87582</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>86815; 106653</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>554081; 708806</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>645487; 785020</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>540398; 699920</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>633898; 812649</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>70047; 86751</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>69135; 85303</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1214704; 1458325</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1368969; 1596806</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1274858; 1508665</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1440695; 1724528</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>144328; 169195</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>160886; 187821</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
